--- a/medicine/Sexualité et sexologie/Compliance_(film)/Compliance_(film).xlsx
+++ b/medicine/Sexualité et sexologie/Compliance_(film)/Compliance_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Compliance est un drame psychologique américain coproduit, écrit et réalisé par Craig Zobel (en) sorti en 2012.
 Le film est adapté de l'histoire vraie de Louise Ogborn.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sandra, la directrice d'un fast-food, reçoit le coup de fil d'un soi-disant policier l'informant qu'une de ses employées a commis un vol. Le policier la convainc de conduire l'interrogatoire en attendant l'intervention de ses collègues… L’interrogatoire se transforme vite en cauchemar.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Compliance
 Réalisation : Craig Zobel (en)
@@ -595,7 +611,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ann Dowd : Sandra
 Dreama Walker : Becky
@@ -633,12 +651,15 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Récompenses
-National Board of Review Awards 2012 : meilleure actrice dans un second rôle pour Ann Dowd
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>National Board of Review Awards 2012 : meilleure actrice dans un second rôle pour Ann Dowd
 Saint Louis Film Critics Association Awards 2012 : meilleure actrice dans un second rôle pour Ann Dowd et meilleur film artistique / créatif
-Women Film Critics Circle Awards 2012 : Adrienne Shelly Award
-Nominations
-1 nomination [réf. souhaitée]</t>
+Women Film Critics Circle Awards 2012 : Adrienne Shelly Award</t>
         </is>
       </c>
     </row>
@@ -663,10 +684,20 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Box-office</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1 nomination [réf. souhaitée]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -689,10 +720,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Réception critique</t>
+          <t>Box-office</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -715,10 +748,40 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Réception critique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Compliance_(film)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Compliance_(film)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film est inspiré de faits réels, lesquels avaient déjà inspiré l’intrigue d’un épisode de la série New York, unité spéciale (saison 9, épisode 17).
 </t>
